--- a/DataNV/Омельян.xlsx
+++ b/DataNV/Омельян.xlsx
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA025725 від 05.06.2024</t>
+          <t>Наряд-замовлення ЗНGA025725 від 05.06.2024 17:19:11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -725,7 +725,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026501 від 15.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026501 від 15.07.2024 15:01:10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -842,7 +842,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026685 від 23.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026685 від 23.07.2024 17:32:15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -885,13 +885,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3897.6</v>
+        <v>31449.6</v>
       </c>
       <c r="N4" t="n">
-        <v>3248</v>
+        <v>26208</v>
       </c>
       <c r="R4" t="n">
-        <v>2.9</v>
+        <v>23.4</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026798 від 29.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026798 від 29.07.2024 10:28:53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1061,7 +1061,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1070,32 +1070,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:07:52</t>
+          <t>14:05:06</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026849 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026848 від 30.07.2024 14:05:06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Заявка</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>30.07.2024 16:20:00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A 471 010 01 79 -1шт кабельна лінія</t>
+          <t>В роботі</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Поточний ремонт</t>
+          <t>Діагностика</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1109,55 +1099,55 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>403.2</v>
+        <v>1965.6</v>
       </c>
       <c r="N6" t="n">
-        <v>336</v>
+        <v>1638</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>УНІВЕРСАЛ ТРАНСПОРТ УКРАЇНА ТОВ</t>
+          <t>Транс-Сервіс-1 ТзОВ</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>УНІВЕРСАЛ ТРАНСПОРТ УКРАЇНА ТОВ</t>
+          <t>Транс-Сервіс-1 ТзОВ</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>+38 (099) 3874881</t>
+          <t>+38 (098) 1323832</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Actros  2042 LS 4x2 LHD (E4/E5/E6)</t>
+          <t>Sprinter Chassis 517 CDI long</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>АТ1501СМ</t>
+          <t>ВС7482ТС</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>WDB9634271L745521</t>
+          <t>W1V5KD3Z9PP544962</t>
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>730000</v>
+        <v>6250</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>07.03.2013</t>
+          <t>18.08.2023</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1168,36 +1158,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31.07.2024</t>
+          <t>30.07.2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:25:11</t>
+          <t>14:07:52</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026868 від 31.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026849 від 30.07.2024 14:07:52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>В роботі</t>
+          <t>Заявка</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31.07.2024 15:10:00</t>
+          <t>30.07.2024 16:20:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A 471 010 01 79 -1шт кабельна лінія</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Технічне обслуговування</t>
+          <t>Поточний ремонт</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1210,71 +1205,56 @@
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>65417.15</v>
-      </c>
       <c r="L7" t="n">
-        <v>7848</v>
-      </c>
-      <c r="M7" t="n">
-        <v>54514.29</v>
+        <v>403.2</v>
       </c>
       <c r="N7" t="n">
-        <v>6540</v>
-      </c>
-      <c r="O7" t="n">
-        <v>61054.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>21805.72</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>73265.14999999999</v>
+        <v>336</v>
       </c>
       <c r="R7" t="n">
-        <v>10.9</v>
+        <v>0.3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>АвтоКапітал ПРАТ</t>
+          <t>УНІВЕРСАЛ ТРАНСПОРТ УКРАЇНА ТОВ</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>ПЕРШИЙ УКРАЇНСЬКИЙ МІЖНАРОДНИЙ БАНК АТ</t>
+          <t>УНІВЕРСАЛ ТРАНСПОРТ УКРАЇНА ТОВ</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>+38 (068) 0119891</t>
+          <t>+38 (099) 3874881</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Mercedes-Benz Sprinter 316 CDI KA K</t>
+          <t>Actros  2042 LS 4x2 LHD (E4/E5/E6)</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>АА6687ХА</t>
+          <t>АТ1501СМ</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>WDB9066311P644960</t>
+          <t>WDB9634271L745521</t>
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>336548</v>
+        <v>730000</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11.09.2019</t>
+          <t>07.03.2013</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
